--- a/crawler_lucro.xlsx
+++ b/crawler_lucro.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3001"/>
+  <dimension ref="A1:F3007"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71972,6 +71972,148 @@
         <v>0.07000000000000001</v>
       </c>
     </row>
+    <row r="3002">
+      <c r="A3002" t="inlineStr">
+        <is>
+          <t>executivolindo</t>
+        </is>
+      </c>
+      <c r="B3002" s="2" t="n">
+        <v>44965.92476851852</v>
+      </c>
+      <c r="C3002" s="2" t="n">
+        <v>44965.9249537037</v>
+      </c>
+      <c r="D3002" t="inlineStr">
+        <is>
+          <t>Chat Simples</t>
+        </is>
+      </c>
+      <c r="E3002" s="3" t="n">
+        <v>0.0001851851851851852</v>
+      </c>
+      <c r="F3002" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="3003">
+      <c r="A3003" t="inlineStr">
+        <is>
+          <t>lucas-62809</t>
+        </is>
+      </c>
+      <c r="B3003" s="2" t="n">
+        <v>44965.92417824074</v>
+      </c>
+      <c r="C3003" s="2" t="n">
+        <v>44965.92497685185</v>
+      </c>
+      <c r="D3003" t="inlineStr">
+        <is>
+          <t>Chat Simples</t>
+        </is>
+      </c>
+      <c r="E3003" s="3" t="n">
+        <v>0.0007986111111111112</v>
+      </c>
+      <c r="F3003" t="n">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="3004">
+      <c r="A3004" t="inlineStr">
+        <is>
+          <t>johny321</t>
+        </is>
+      </c>
+      <c r="B3004" s="2" t="n">
+        <v>44965.92480324074</v>
+      </c>
+      <c r="C3004" s="2" t="n">
+        <v>44965.92483796296</v>
+      </c>
+      <c r="D3004" t="inlineStr">
+        <is>
+          <t>Chat Simples</t>
+        </is>
+      </c>
+      <c r="E3004" s="3" t="n">
+        <v>3.472222222222222e-05</v>
+      </c>
+      <c r="F3004" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="3005">
+      <c r="A3005" t="inlineStr">
+        <is>
+          <t>gabriel-33435</t>
+        </is>
+      </c>
+      <c r="B3005" s="2" t="n">
+        <v>44965.92454861111</v>
+      </c>
+      <c r="C3005" s="2" t="n">
+        <v>44965.92461805556</v>
+      </c>
+      <c r="D3005" t="inlineStr">
+        <is>
+          <t>Chat Simples</t>
+        </is>
+      </c>
+      <c r="E3005" s="3" t="n">
+        <v>6.944444444444444e-05</v>
+      </c>
+      <c r="F3005" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="3006">
+      <c r="A3006" t="inlineStr">
+        <is>
+          <t>nat-prince</t>
+        </is>
+      </c>
+      <c r="B3006" s="2" t="n">
+        <v>44964.8705787037</v>
+      </c>
+      <c r="C3006" s="2" t="n">
+        <v>44964.8705787037</v>
+      </c>
+      <c r="D3006" t="inlineStr">
+        <is>
+          <t>Mensagem Direta</t>
+        </is>
+      </c>
+      <c r="E3006" t="inlineStr"/>
+      <c r="F3006" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3007">
+      <c r="A3007" t="inlineStr">
+        <is>
+          <t>madruga2020</t>
+        </is>
+      </c>
+      <c r="B3007" s="2" t="n">
+        <v>44964.86528935185</v>
+      </c>
+      <c r="C3007" s="2" t="n">
+        <v>44964.86927083333</v>
+      </c>
+      <c r="D3007" t="inlineStr">
+        <is>
+          <t>Chat Exclusivo</t>
+        </is>
+      </c>
+      <c r="E3007" s="3" t="n">
+        <v>0.003981481481481482</v>
+      </c>
+      <c r="F3007" t="n">
+        <v>9.460000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
